--- a/datamining/final_data/sorted1997_nltk.xlsx
+++ b/datamining/final_data/sorted1997_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AIS2"/>
+  <dimension ref="A1:AHF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,14 +457,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>students</t>
@@ -472,7 +472,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>editors</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -492,17 +492,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>editors</t>
+          <t>riches</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>embarrassment</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -512,32 +512,32 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>perceived</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>development</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>riches</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>embarrassment</t>
+          <t>calling</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -547,64 +547,64 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>editior</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>evaluation</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>creativity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>development</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>books</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>reviewers</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>minority</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>'s</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>attitudes</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>editior</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>calling</t>
-        </is>
-      </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
@@ -612,162 +612,162 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>surpassing</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>eminent</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>cooperative</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>reviewers</t>
+          <t>goldberg</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>eminent</t>
+          <t>levin</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cooperative</t>
+          <t>memoriam</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>miriam</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>surpassing</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>memoriam</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>goldberg</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>levin</t>
+          <t>young</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>miriam</t>
+          <t>fly</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>philosophy</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>group</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
+          <t>ct</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>constructivism</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>fosnot</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>constructivism</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>ct</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>fosnot</t>
-        </is>
-      </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>study</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
@@ -777,167 +777,167 @@
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>scientists</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
+          <t>csikszentmihalyi</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
           <t>practice</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>scientists</t>
-        </is>
-      </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>invention</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
+          <t>discovery</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>non-identified</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>psychology</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
           <t>performance</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>non-identified</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>needs</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>services</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>ep</t>
-        </is>
-      </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>black</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>philosophy</t>
+          <t>ford</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>fly</t>
+          <t>promising</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>reversing</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>csikszentmihalyi</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>invention</t>
+          <t>general</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>discovery</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>social</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>used</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>project</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>control</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>case</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>kindergarten</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>model</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>network</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
@@ -947,487 +947,487 @@
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>nonidentified</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>article</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>multipotentiality</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>nominations</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>ford</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>promising</t>
+          <t>congregated</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>reversing</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>tacit</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>nonidentified</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>results</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>also</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>two</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>multipotentiality</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>nominations</t>
+          <t>dabrowski</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>congregated</t>
+          <t>overexcitabilities</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>tacit</t>
+          <t>early</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>time</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>family</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>boyce</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>johnson</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>ln</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>vantasselbaska</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>became</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>johnson</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>vantasselbaska</t>
+          <t>sites</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>boyce</t>
+          <t>solving</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>ln</t>
+          <t>roles</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>overexcitabilities</t>
+          <t>hemispheric</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>visual-spatial</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>became</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>lessons</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>dabrowski</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>sites</t>
+          <t>grouped</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>activity</t>
+          <t>based</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>solving</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>hemispheric</t>
+          <t>close</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>visual-spatial</t>
+          <t>professionals</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>newark</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>later</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>grouped</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>first</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>newark</t>
+          <t>district</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>professionals</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>research</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>exhibit</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>data</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>heterogeneous</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>using</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>homogeneous</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>sensitivity</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>either</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>homogeneously</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>exhibit</t>
+          <t>high-potential</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>one</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>success</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>increased</t>
+          <t>assumptions</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>debates</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>assumptions</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
@@ -1437,3357 +1437,3357 @@
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
+          <t>low-income</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>displayed</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>debates</t>
+          <t>intensity</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>related</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>homogeneous</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>heterogeneous</t>
+          <t>well</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>found</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>homogeneously</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>low-income</t>
+          <t>student</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>high-potential</t>
+          <t>relaxed</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>conduct</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>eeg</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>activation</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>eeg</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>activation</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>friendship</t>
+          <t>methodology</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>conduct</t>
+          <t>occasionally</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>second</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>given</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>insights</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>information</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>relaxed</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>husbands</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>felt</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>husband</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>marriage</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>willingness</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>felt</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>art</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>occasionally</t>
+          <t>part</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>marriage</t>
+          <t>atp</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>husbands</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>intensity</t>
+          <t>communities</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>level</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>sensitivity</t>
+          <t>multi-site</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>content</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>however</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>many</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>recommendations</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>willingness</t>
+          <t>mothers</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>maternal</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>18</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>artistically</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>atp</t>
+          <t>able</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>communities</t>
+          <t>theoretical</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>use</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>within</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>multi-site</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>work</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>displayed</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>public</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>methodology</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>remained</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>process</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>city</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>inner</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>method</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>rethinking</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>remained</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>recommendations</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>mothers</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>maternal</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>above-level</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>inner</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>collaboration</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>rethinking</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>ages</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>differing</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>interactions</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>across</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>child</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>special</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>employed</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>language</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>interactions</t>
+          <t>years</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>included</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>differing</t>
+          <t>culturally</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>specialized</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
+          <t>acceptance</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
           <t>relationships</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>make</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>income</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>low</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>acceptance</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>specialized</t>
+          <t>university</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>harter</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>ages</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>culturally</t>
+          <t>frequently</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>science</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>types</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>three</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>working</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>different</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>conditions</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>evaluators</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>shares</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>harter</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>improvement</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>important</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>subjects</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>gathered</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>explains</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>indicating</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>translated</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
+          <t>greenwich</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>hypotheses</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>reflect</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>serving</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>efforts</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>mathematically</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>believed</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>sponsoring</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>observations</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>youngsters</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>utility</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>addressed</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>skill</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>opportunities</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>settings</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>indicating</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>serving</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>different</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>mathematically</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>believed</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>conditions</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>skill</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>hypotheses</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>opportunities</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>addressed</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>28</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
+          <t>summarized</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
           <t>several</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>gathered</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>scientific</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
-        <is>
-          <t>explains</t>
-        </is>
-      </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>summarized</t>
-        </is>
-      </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>greenwich</t>
+          <t>finding</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>basis</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>evaluators</t>
+          <t>explained</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>20</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>expanding</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>reflect</t>
+          <t>folkman</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>finding</t>
+          <t>dysfunctional</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>paucity</t>
+          <t>stress</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>observations</t>
+          <t>influences</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>functional</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>stressors</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>intrapersonal</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>improvement</t>
+          <t>lazarus</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>paradigm</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>although</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>shares</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>youngsters</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>pressures</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>cope</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>translated</t>
+          <t>four</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>sponsoring</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>intrapersonal</t>
+          <t>seam</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>functional</t>
+          <t>demands</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>influences</t>
+          <t>combines</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>various</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>lazarus</t>
+          <t>collapsing</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>stressors</t>
+          <t>typically</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>underrepresented</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>university/school</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>documented</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>pressures</t>
+          <t>instead</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>12</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>folkman</t>
+          <t>40</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>demands</t>
+          <t>attributions</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>seam</t>
+          <t>declarative</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>responded</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>explained</t>
+          <t>emerges</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>examining</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>expanding</t>
+          <t>particularly</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>cope</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>combines</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>dysfunctional</t>
+          <t>served</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>challenging</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>discouraged</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>eight</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>emphases</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>expectations</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>immersion</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>reasons</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>manipulatives</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>mentorships</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>multicultural</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>outreach</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>programmatic</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>promoted</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>according</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>association</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>work/discussion</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>prosocial</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>self-contained</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>socioaffective</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>stimulation</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>tended</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>varied</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>aspects</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>claims</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>makeup</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>manifested</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>sensual</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>neurotic</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>psychomotor</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>previous</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>congregate</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>constructive</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>contributions</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>developmentally</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>divided</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>eighth</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>exchanged</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>females</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>heterogeneously</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>males</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>mates</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>intensities</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>mutual</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>backgrounds</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>potentials</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>imbalances</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>embeds</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>empirical-analytic</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>war</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>transformative</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>topics</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>identifying</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
           <t>perennial</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>getzels</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>disciplined</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>reformulation</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>reconceptualization</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>philosophical</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>interpretive</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
         <is>
           <t>modes</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>occur</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>periodic</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
         <is>
           <t>particular</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>reformulation</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>reconceptualization</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>philosophical</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>war</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>transformative</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>topics</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>resolution</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>periodic</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>occur</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>emerges</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>manipulatives</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>mentorships</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>multicultural</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>outreach</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>programmatic</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>declarative</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>promoted</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>reasons</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>served</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>typically</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>immersion</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>expectations</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>emphases</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>diverse</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>discouraged</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>challenging</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>backgrounds</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>issues</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>attributions</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>collapsing</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>empirical-analytic</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>interpretive</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>exchanged</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>males</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>heterogeneously</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>feedback</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>eighth</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>association</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>divided</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>developmentally</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>contributions</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>constructive</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>getzels</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>congregate</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>mates</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>mutual</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>previous</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>prosocial</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>self-contained</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>socioaffective</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>stimulation</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>tended</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>varied</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>work/discussion</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>claims</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresented</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>embeds</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>dillon</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>growth</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>indicators</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>accompanying</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
         <is>
           <t>advocates</t>
         </is>
       </c>
-      <c r="TF1" s="1" t="inlineStr">
+      <c r="TM1" s="1" t="inlineStr">
         <is>
           <t>central</t>
         </is>
       </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>debate</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>debated</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>imaginational</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
         <is>
           <t>conjunction</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>debate</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>debated</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>dillon</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>disciplined</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>accompanying</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>university/school</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>according</t>
-        </is>
-      </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>conscious</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>autonomy</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>talents</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>descriptive</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>confronted</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>accommodate</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>unsupportive</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>financial</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>appeal</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>45-65</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>michigan</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>chores</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>commitment</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>joint</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>alumnae</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>spouse</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>driving</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>forces</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>scholastic</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>labelled</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>reputation</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>collaborated</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>situations</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>occurred</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>specialists</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>readiness</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>sppa</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>subscales</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>superintendents</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>profile</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>contributed</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>ratings</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>self-image</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>share</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>highpotential</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>describe</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>differentiating</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>embrace</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>emerged</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>flexible</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>high-ability</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>grouping</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>implementing</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>solely</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>couple</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>interact-ion</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
           <t>domestic</t>
         </is>
       </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>couple</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>financial</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>michigan</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>worked</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>contributed</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>reported</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>alumnae</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>solely</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>joint</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>spouse</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>chores</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>talents</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>commitment</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>unsupportive</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>45-65</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>highpotential</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>confronted</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>interviews</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
         <is>
           <t>goals</t>
         </is>
       </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>gain</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>free</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>share</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>interact-ion</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>potentials</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>psychomotor</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>sensual</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>st</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>scholastic</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>high-ability</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>profile</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>forces</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>manifested</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>self-image</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>enjoyed</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>sppa</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>appeal</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>driving</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>subscales</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>technique</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>descriptive</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>conscious</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>neurotic</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>combination</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>makeup</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>occurred</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>imaginational</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>imbalances</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>identifying</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>intensities</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>documented</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>labelled</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>indicators</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>instead</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>principals</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>requires</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>began</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>interact</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>reviews</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantaged</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>efficient</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>smpy</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>subjected</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>suggesting</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>economically</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>ubiquitous</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>vast</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>vocational</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>reveal</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>mathematical</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>disproportionately</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>appears</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>pedagogy</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>entering</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>self-esteem</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>valentines</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>visual</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>gained</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>followed</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>developmental</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>constructivist</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>assigned</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>n't</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>allowing</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>collaborate</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>applicability</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>``</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>assume</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
         <is>
           <t>become</t>
         </is>
       </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
+      <c r="ZM1" s="1" t="inlineStr">
         <is>
           <t>beyond</t>
         </is>
       </c>
-      <c r="WU1" s="1" t="inlineStr">
+      <c r="ZN1" s="1" t="inlineStr">
         <is>
           <t>building</t>
         </is>
       </c>
-      <c r="WV1" s="1" t="inlineStr">
+      <c r="ZO1" s="1" t="inlineStr">
         <is>
           <t>caring</t>
         </is>
       </c>
-      <c r="WW1" s="1" t="inlineStr">
+      <c r="ZP1" s="1" t="inlineStr">
         <is>
           <t>choices</t>
         </is>
       </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>collaborate</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>matter</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>corner</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>cutting</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>educating</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>empowered</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>indiana</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>inservice</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaires</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>markedly</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>presence</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>preferences</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>nurture</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>nj</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>stable</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>jersey</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>reflecting</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>randomly</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>seek</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>pictorial</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>indicates</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>imperative</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>consulted</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>adequately</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>appreciation</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>assumed</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>benbow</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>identify</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>presents</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>helpfulness</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>independence</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>measured</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>members</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>middle-class</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>networks</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>parental</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>strictness</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>examined</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>dimensions</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>correlates</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>pike</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>preschool</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>relatively</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
         <is>
           <t>scale</t>
         </is>
       </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>corner</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>cutting</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>empowered</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>promote</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
         <is>
           <t>preschoolers</t>
         </is>
       </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>assume</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>stable</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>seek</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>applicability</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>arts</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>strictness</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>vast</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>vocational</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>reflecting</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>randomly</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>until</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>mathematical</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>interact</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>indiana</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>followed</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>constructivist</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>ubiquitous</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>assigned</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>allowing</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>gained</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>pike</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>inservice</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>specialists</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>networks</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>researchers</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>reputation</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>readiness</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>projects</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>principals</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>parental</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>pictorial</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>implementing</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>impact</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>grouping</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>situations</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>middle-class</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>lead</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>compiled</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>inception</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>diversity</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>encountered</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>erroneously</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>falsely</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>gaining</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>helpful</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>graders</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>intellecutually</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>despite</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
         <is>
           <t>caucasian</t>
         </is>
       </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>correlates</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>examined</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>helpfulness</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>independence</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>members</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>superintendents</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>emerged</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>embrace</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>self-esteem</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>subjected</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>private</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>pedagogy</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>n't</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>matter</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>valentines</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>differentiating</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>describe</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>collaborated</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>classrooms</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>beliefs</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>autonomy</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>accommodate</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>suggesting</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>smpy</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>procedure</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>promote</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>relatively</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>therefore</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>adequately</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>apply</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>assumed</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>benbow</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>compiled</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>consulted</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>lunbinski</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>excellence</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
         <is>
           <t>critically</t>
         </is>
       </c>
-      <c r="ACL1" s="1" t="inlineStr">
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>measuring</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
         <is>
           <t>defined</t>
         </is>
       </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>despite</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>diversity</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>encountered</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>erroneously</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>falsely</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>further</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>promise</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>helpful</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>presents</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>``</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>appears</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>before</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>began</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged</t>
-        </is>
-      </c>
       <c r="ADG1" s="1" t="inlineStr">
         <is>
-          <t>disproportionately</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="ADH1" s="1" t="inlineStr">
         <is>
-          <t>economically</t>
+          <t>interpreted</t>
         </is>
       </c>
       <c r="ADI1" s="1" t="inlineStr">
         <is>
-          <t>efficient</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="ADJ1" s="1" t="inlineStr">
         <is>
-          <t>entering</t>
+          <t>university-based</t>
         </is>
       </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>center</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>best</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>1993b</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>cornell</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>imperative</t>
+          <t>available</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>inception</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>indicates</t>
+          <t>335</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>jersey</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>done</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>nj</t>
+          <t>families</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>beneficial</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>nurture</t>
+          <t>canonical</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>gaining</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>reveal</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>measuring</t>
+          <t>separate</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>preferences</t>
+          <t>resulted</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>offered</t>
+          <t>rating</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>markedly</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>presence</t>
+          <t>nomination</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>questionnaires</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>lunbinski</t>
+          <t>evaluated</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>find</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>interpreted</t>
+          <t>colangelo</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>respondents</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>requires</t>
+          <t>silverman</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>standardized</t>
+          <t>passow</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>intellecutually</t>
+          <t>pace</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>personnel</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>surveyed</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>myers</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>myers</t>
+          <t>patients</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>pace</t>
+          <t>shore</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
+          <t>robinson</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>readily</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>ward</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
           <t>kerr</t>
         </is>
       </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>1993b</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>beneficial</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>index</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>patients</t>
+          <t>exploring</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>eighth-graders</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>passow</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>colangelo</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>follows</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>cornell</t>
+          <t>american</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>exhibited</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>sparingly</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>readily</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>studied</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>canonical</t>
+          <t>asymmetry</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>divergent</t>
+          <t>lived</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>evaluated</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>nomination</t>
+          <t>like</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>life</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>much</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>resulted</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>separate</t>
+          <t>encouraged</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>exemplify</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>electroencephalography</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>recorded</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>silverman</t>
+          <t>seventh-</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>example</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>robinson</t>
+          <t>allowed</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>shore</t>
+          <t>non-gifted</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>respondents</t>
+          <t>sixth-</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>surveyed</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>university-based</t>
+          <t>bookish</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>ward</t>
+          <t>seldom</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>concentrated</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>distinguish</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>distinguishing</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
@@ -4797,282 +4797,87 @@
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>eighth-graders</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>pursue</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>pursue</t>
+          <t>tested</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>electroencephalography</t>
+          <t>never</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>sixth-</t>
+          <t>mole</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>seldom</t>
+          <t>235</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
+          <t>supported</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>solved</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>seventeen</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>non-gifted</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>never</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>mole</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>supplement</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>solved</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>seventeen</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>recorded</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>lower</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>asymmetry</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>follows</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>seventh-</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>sparingly</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>lived</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>exemplify</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
           <t>engaged</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>encouraged</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>exhibited</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>distinguishing</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>distinguish</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>concentrated</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>bookish</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>tested</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>supported</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>allowed</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>supplement</t>
         </is>
       </c>
     </row>
@@ -5087,34 +4892,34 @@
         <v>1997</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="E2" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="G2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="L2" t="n">
         <v>0.77</v>
       </c>
       <c r="M2" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="N2" t="n">
         <v>0.71</v>
@@ -5126,19 +4931,19 @@
         <v>0.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="R2" t="n">
         <v>0.6699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.66</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="T2" t="n">
         <v>0.66</v>
       </c>
       <c r="U2" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="V2" t="n">
         <v>0.64</v>
@@ -5147,52 +4952,52 @@
         <v>0.64</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.61</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.55</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.55</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.55</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.5499999999999999</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AN2" t="n">
         <v>0.51</v>
@@ -5204,7 +5009,7 @@
         <v>0.51</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0.5</v>
@@ -5213,10 +5018,10 @@
         <v>0.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AV2" t="n">
         <v>0.48</v>
@@ -5228,28 +5033,28 @@
         <v>0.48</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.48</v>
+        <v>0.4600000000000001</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BG2" t="n">
         <v>0.46</v>
@@ -5258,7 +5063,7 @@
         <v>0.46</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.45</v>
@@ -5276,19 +5081,19 @@
         <v>0.45</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="BQ2" t="n">
         <v>0.44</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="BT2" t="n">
         <v>0.43</v>
@@ -5297,28 +5102,28 @@
         <v>0.43</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.42</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="CD2" t="n">
         <v>0.41</v>
@@ -5327,58 +5132,58 @@
         <v>0.41</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CX2" t="n">
         <v>0.36</v>
@@ -5387,100 +5192,100 @@
         <v>0.36</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="EF2" t="n">
         <v>0.3</v>
@@ -5489,7 +5294,7 @@
         <v>0.3</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="EI2" t="n">
         <v>0.29</v>
@@ -5504,172 +5309,172 @@
         <v>0.29</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GQ2" t="n">
         <v>0.22</v>
@@ -5696,28 +5501,28 @@
         <v>0.22</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HG2" t="n">
         <v>0.21</v>
@@ -5747,34 +5552,34 @@
         <v>0.21</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HZ2" t="n">
         <v>0.2</v>
@@ -5798,22 +5603,22 @@
         <v>0.2</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="II2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IM2" t="n">
         <v>0.19</v>
@@ -5834,55 +5639,55 @@
         <v>0.19</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JJ2" t="n">
         <v>0.18</v>
@@ -5891,43 +5696,43 @@
         <v>0.18</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JY2" t="n">
         <v>0.17</v>
@@ -5966,49 +5771,49 @@
         <v>0.17</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KZ2" t="n">
         <v>0.16</v>
@@ -6026,103 +5831,103 @@
         <v>0.16</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="ML2" t="n">
         <v>0.14</v>
@@ -6209,13 +6014,13 @@
         <v>0.14</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="NQ2" t="n">
         <v>0.13</v>
@@ -6251,67 +6056,67 @@
         <v>0.13</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OW2" t="n">
         <v>0.12</v>
@@ -6323,67 +6128,67 @@
         <v>0.12</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PU2" t="n">
         <v>0.11</v>
@@ -6695,7 +6500,7 @@
         <v>0.11</v>
       </c>
       <c r="TT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="TU2" t="n">
         <v>0.1</v>
@@ -6923,19 +6728,19 @@
         <v>0.1</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="WV2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="WW2" t="n">
         <v>0.09</v>
@@ -7445,109 +7250,109 @@
         <v>0.09</v>
       </c>
       <c r="ADJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AED2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AES2" t="n">
         <v>0.08</v>
@@ -7583,109 +7388,109 @@
         <v>0.08</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGM2" t="n">
         <v>0.07000000000000001</v>
@@ -7745,123 +7550,6 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AHZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AID2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AII2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AIS2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
